--- a/fuentes/contenidos/grado06/guion04/EsqueletoGuion_CS_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/EsqueletoGuion_CS_06_04_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1455" windowWidth="19440" windowHeight="11700" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="69">
   <si>
     <t>FICHA</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vida diaria de la sociedad azteca </t>
   </si>
 </sst>
 </file>
@@ -311,13 +314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,15 +786,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2308,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2329,7 @@
     <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -2354,190 +2358,206 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="I4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="I7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="I8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="I11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2552,8 +2572,8 @@
       <c r="G12" s="9"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2568,8 +2588,8 @@
       <c r="G13" s="9"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2584,8 +2604,8 @@
       <c r="G14" s="9"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2605,8 +2625,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2624,7 +2644,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2645,219 +2665,242 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="5" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="5"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="5"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="H28" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="21" t="s">
         <v>67</v>
       </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H30" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2868,7 +2911,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2879,7 +2922,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2890,7 +2933,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2901,7 +2944,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2912,7 +2955,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2929,7 +2972,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2940,7 +2983,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2951,7 +2994,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2962,7 +3005,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2979,7 +3022,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2990,7 +3033,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3007,7 +3050,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3018,7 +3061,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3029,7 +3072,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3040,7 +3083,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3051,7 +3094,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3062,7 +3105,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3073,7 +3116,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3090,7 +3133,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3101,7 +3144,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3111,14 +3154,14 @@
         <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3129,7 +3172,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3143,7 +3186,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3160,526 +3203,662 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="20" t="s">
+      <c r="A56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="H59" t="s">
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="20" t="s">
+      <c r="A67" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="H67" t="s">
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="20" t="s">
+      <c r="A68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="20" t="s">
+      <c r="A69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="20" t="s">
+      <c r="A70" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="20" t="s">
+      <c r="A71" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="20" t="s">
+      <c r="A72" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="20" t="s">
+      <c r="A73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="20" t="s">
+      <c r="A74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="20" t="s">
+      <c r="A75" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="H76" t="s">
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="20" t="s">
+      <c r="A77" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="20" t="s">
+      <c r="A78" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="20" t="s">
+      <c r="A79" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="H79" t="s">
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="20" t="s">
+      <c r="A80" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="20" t="s">
+      <c r="A81" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="20" t="s">
+      <c r="A82" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="20" t="s">
+      <c r="A83" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="20" t="s">
+      <c r="A84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="20" t="s">
+      <c r="A86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="20" t="s">
+      <c r="A87" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" s="20" t="s">
+      <c r="A88" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B89" s="20" t="s">
+      <c r="A89" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="H89" t="s">
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="20" t="s">
+      <c r="A90" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="19" t="s">
+      <c r="C90" s="22"/>
+      <c r="D90" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="21" t="s">
         <v>67</v>
       </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="20" t="s">
+      <c r="A91" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19" t="s">
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H91" t="s">
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3696,7 +3875,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3713,30 +3892,38 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="20" t="s">
+      <c r="A94" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="20"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" s="20" t="s">
+      <c r="A95" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
